--- a/db_feed/DPPDTT/DPPDTT_dataset_feed_D6_measurements.xlsx
+++ b/db_feed/DPPDTT/DPPDTT_dataset_feed_D6_measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\db_feed\DPPDTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEF85C8-F431-47A4-AFC1-4012F1506ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF18025-98E7-41DF-9F2D-E78B74D48C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{2E5C2630-BF0B-4FF5-955F-75701201CD0D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{2E5C2630-BF0B-4FF5-955F-75701201CD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="ofet_hole" sheetId="1" r:id="rId1"/>
@@ -591,7 +591,7 @@
   <dimension ref="A1:N179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7107,8 +7107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49366654-A1E2-4FE5-BB3C-541B591A5C82}">
   <dimension ref="A1:N207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="F210" sqref="F210"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13638,8 +13638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41ACF531-F54D-4BB2-95CC-A528443B1E6C}">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A109"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15457,12 +15457,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB86B5E-C631-4723-855D-44F3BE3B9BDA}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>

--- a/db_feed/DPPDTT/DPPDTT_dataset_feed_D6_measurements.xlsx
+++ b/db_feed/DPPDTT/DPPDTT_dataset_feed_D6_measurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\db_feed\DPPDTT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\DPPDTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF18025-98E7-41DF-9F2D-E78B74D48C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C4628F-96BE-411C-8D70-3BE57D947778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{2E5C2630-BF0B-4FF5-955F-75701201CD0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E5C2630-BF0B-4FF5-955F-75701201CD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="ofet_hole" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="70">
   <si>
     <t>saturation</t>
   </si>
@@ -201,6 +201,57 @@
   <si>
     <t>measurement_id</t>
   </si>
+  <si>
+    <t>transfer_curve</t>
+  </si>
+  <si>
+    <t>data.hole_mobility.value</t>
+  </si>
+  <si>
+    <t>data.hole_threshold_voltage.value</t>
+  </si>
+  <si>
+    <t>data.electron_mobility.error</t>
+  </si>
+  <si>
+    <t>data.electron_threshold_voltage.value</t>
+  </si>
+  <si>
+    <t>data.electron_mobility.value</t>
+  </si>
+  <si>
+    <t>data.hole_mobility.error</t>
+  </si>
+  <si>
+    <t>[10,-60]</t>
+  </si>
+  <si>
+    <t>[20,-40]</t>
+  </si>
+  <si>
+    <t>[0,-30]</t>
+  </si>
+  <si>
+    <t>[100,-100]</t>
+  </si>
+  <si>
+    <t>[20,-60]</t>
+  </si>
+  <si>
+    <t>[60,-60]</t>
+  </si>
+  <si>
+    <t>[5,-30]</t>
+  </si>
+  <si>
+    <t>[5,-40]</t>
+  </si>
+  <si>
+    <t>[40,-20]</t>
+  </si>
+  <si>
+    <t>[40,-100]</t>
+  </si>
 </sst>
 </file>
 
@@ -210,7 +261,7 @@
     <numFmt numFmtId="164" formatCode="0.000000000"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +272,19 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -264,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -274,6 +338,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172B31CE-7F42-41AE-8B2B-80B2F4C6D6E0}">
   <dimension ref="A1:N179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +672,7 @@
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.7109375" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
@@ -622,13 +693,13 @@
         <v>46</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>31</v>
@@ -663,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D2">
         <v>0.11</v>
@@ -692,7 +763,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D3">
         <v>0.28999999999999998</v>
@@ -721,7 +792,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <v>0.23</v>
@@ -750,7 +821,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D5">
         <v>0.73</v>
@@ -779,7 +850,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D6">
         <v>1.86</v>
@@ -808,7 +879,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D7">
         <v>0.21</v>
@@ -837,7 +908,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D8">
         <v>0.34</v>
@@ -866,7 +937,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D9">
         <v>0.24</v>
@@ -895,7 +966,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D10">
         <v>1.97</v>
@@ -924,7 +995,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D11">
         <v>0.69</v>
@@ -953,7 +1024,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D12">
         <v>2.04</v>
@@ -982,7 +1053,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <v>0.81</v>
@@ -1008,7 +1079,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D14">
         <v>1.53</v>
@@ -1034,7 +1105,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D15">
         <v>0.9</v>
@@ -1060,7 +1131,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D16">
         <v>1.1000000000000001</v>
@@ -1086,7 +1157,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D17">
         <v>1.25</v>
@@ -1112,7 +1183,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D18">
         <v>1.3</v>
@@ -1138,7 +1209,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D19">
         <v>1.25</v>
@@ -1164,7 +1235,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D20">
         <v>0.9</v>
@@ -1190,7 +1261,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D21">
         <v>0.6</v>
@@ -1216,7 +1287,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1236,7 +1307,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D23">
         <v>3.8</v>
@@ -1256,7 +1327,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D24">
         <v>8.5</v>
@@ -1276,7 +1347,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D25">
         <v>6.85</v>
@@ -1311,7 +1382,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D26">
         <v>7.25</v>
@@ -1346,7 +1417,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D27">
         <v>5.75</v>
@@ -1381,7 +1452,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D28">
         <v>7.95</v>
@@ -1416,7 +1487,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D29">
         <v>7.85</v>
@@ -1451,7 +1522,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D30">
         <v>0.15</v>
@@ -1484,7 +1555,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D31">
         <v>2.1</v>
@@ -1517,7 +1588,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D32">
         <v>9</v>
@@ -1550,7 +1621,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D33">
         <v>4.4000000000000004</v>
@@ -1585,7 +1656,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D34">
         <v>2.65</v>
@@ -1620,7 +1691,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D35">
         <v>3.5</v>
@@ -1655,7 +1726,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D36">
         <v>1.1599999999999999</v>
@@ -1684,7 +1755,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D37">
         <v>3.39</v>
@@ -1713,7 +1784,7 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D38">
         <v>5.8</v>
@@ -1742,7 +1813,7 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D39">
         <v>6.76</v>
@@ -1771,7 +1842,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D40">
         <v>2.57</v>
@@ -1800,7 +1871,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D41">
         <v>6</v>
@@ -1823,7 +1894,7 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -1846,7 +1917,7 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D43">
         <v>4</v>
@@ -1869,7 +1940,7 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D44" s="1">
         <v>2.9999999999999997E-4</v>
@@ -1895,7 +1966,7 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D45" s="1">
         <v>8.4999999999999995E-4</v>
@@ -1921,7 +1992,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D46" s="1">
         <v>3.5000000000000001E-3</v>
@@ -1947,7 +2018,7 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D47" s="1">
         <v>5.6999999999999998E-4</v>
@@ -1973,7 +2044,7 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D48" s="1">
         <v>9.5000000000000005E-5</v>
@@ -1999,7 +2070,7 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D49" s="1">
         <v>2.0000000000000001E-4</v>
@@ -2025,7 +2096,7 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D50" s="1">
         <v>1.0200000000000001E-3</v>
@@ -2051,7 +2122,7 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D51" s="1">
         <v>3.6499999999999998E-4</v>
@@ -2077,7 +2148,7 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D52">
         <v>4.8399999999999999E-2</v>
@@ -2109,7 +2180,7 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D53">
         <v>0.1812</v>
@@ -2141,7 +2212,7 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D54">
         <v>9.01E-2</v>
@@ -2173,7 +2244,7 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D55">
         <v>6.4100000000000004E-2</v>
@@ -2205,7 +2276,7 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D56">
         <v>0.2</v>
@@ -2240,7 +2311,7 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D57">
         <v>0.09</v>
@@ -2269,7 +2340,7 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D58">
         <v>0.14000000000000001</v>
@@ -2298,7 +2369,7 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D59" s="1">
         <v>1.4999999999999999E-4</v>
@@ -2330,7 +2401,7 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D60" s="1">
         <v>0.02</v>
@@ -2362,7 +2433,7 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D61" s="1">
         <v>0.06</v>
@@ -2394,7 +2465,7 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D62" s="1">
         <v>0.15</v>
@@ -2426,7 +2497,7 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D63" s="1">
         <v>0.45</v>
@@ -2458,7 +2529,7 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D64" s="1">
         <v>4.4999999999999999E-4</v>
@@ -2490,7 +2561,7 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D65" s="1">
         <v>0.45</v>
@@ -2522,7 +2593,7 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D66" s="1">
         <v>0.2</v>
@@ -2554,7 +2625,7 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D67" s="1">
         <v>0.8</v>
@@ -2586,7 +2657,7 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D68" s="1">
         <v>0.5</v>
@@ -2618,7 +2689,7 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D69" s="1">
         <v>0.11</v>
@@ -2656,7 +2727,7 @@
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D70" s="1">
         <v>0.3</v>
@@ -2694,7 +2765,7 @@
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D71" s="1">
         <v>0.1</v>
@@ -2732,7 +2803,7 @@
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D72" s="1">
         <v>0.11</v>
@@ -2770,7 +2841,7 @@
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D73" s="1">
         <v>0.02</v>
@@ -2805,7 +2876,7 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D74">
         <v>0.02</v>
@@ -2840,7 +2911,7 @@
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D75" s="3">
         <v>2</v>
@@ -2872,7 +2943,7 @@
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
@@ -2904,7 +2975,7 @@
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D77" s="3">
         <v>0.1</v>
@@ -2936,7 +3007,7 @@
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D78" s="3">
         <v>0.1</v>
@@ -2968,7 +3039,7 @@
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D79" s="3">
         <v>0.01</v>
@@ -3000,7 +3071,7 @@
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D80" s="1">
         <v>0.14000000000000001</v>
@@ -3026,7 +3097,7 @@
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D81" s="1">
         <v>0.3</v>
@@ -3052,7 +3123,7 @@
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D82" s="1">
         <v>0.1</v>
@@ -3078,7 +3149,7 @@
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D83" s="1">
         <v>8.4000000000000005E-2</v>
@@ -3104,7 +3175,7 @@
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D84" s="1">
         <v>0.1</v>
@@ -3130,7 +3201,7 @@
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D85" s="1">
         <v>0.17</v>
@@ -3156,7 +3227,7 @@
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D86" s="1">
         <v>0.15</v>
@@ -3182,7 +3253,7 @@
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D87" s="1">
         <v>0.28000000000000003</v>
@@ -3208,7 +3279,7 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D88" s="1">
         <v>0.2</v>
@@ -3234,7 +3305,7 @@
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D89" s="1">
         <v>0.28999999999999998</v>
@@ -3260,7 +3331,7 @@
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D90" s="1">
         <v>0.32500000000000001</v>
@@ -3286,7 +3357,7 @@
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D91" s="1">
         <v>0.36</v>
@@ -3312,7 +3383,7 @@
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D92" s="1">
         <v>0.4</v>
@@ -3338,7 +3409,7 @@
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D93" s="1">
         <v>0.18</v>
@@ -3364,7 +3435,7 @@
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D94" s="1">
         <v>0.28000000000000003</v>
@@ -3390,7 +3461,7 @@
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D95" s="1">
         <v>0.23</v>
@@ -3416,7 +3487,7 @@
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D96" s="1">
         <v>0.315</v>
@@ -3442,7 +3513,7 @@
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D97" s="1">
         <v>0.18</v>
@@ -3468,7 +3539,7 @@
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D98" s="1">
         <v>0.28000000000000003</v>
@@ -3494,7 +3565,7 @@
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D99" s="1">
         <v>0.3</v>
@@ -3520,7 +3591,7 @@
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D100" s="1">
         <v>0.28000000000000003</v>
@@ -3546,7 +3617,7 @@
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D101" s="1">
         <v>0.27500000000000002</v>
@@ -3572,7 +3643,7 @@
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D102" s="1">
         <v>0.08</v>
@@ -3598,7 +3669,7 @@
         <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D103" s="1">
         <v>0.125</v>
@@ -3624,7 +3695,7 @@
         <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D104" s="1">
         <v>0.08</v>
@@ -3650,7 +3721,7 @@
         <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D105" s="1">
         <v>0.08</v>
@@ -3676,7 +3747,7 @@
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D106" s="1">
         <v>0.08</v>
@@ -3702,7 +3773,7 @@
         <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D107" s="1">
         <v>0.13</v>
@@ -3728,7 +3799,7 @@
         <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D108" s="1">
         <v>0.125</v>
@@ -3754,7 +3825,7 @@
         <v>108</v>
       </c>
       <c r="C109" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D109" s="1">
         <v>0.05</v>
@@ -3780,7 +3851,7 @@
         <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D110" s="1">
         <v>7.4999999999999997E-2</v>
@@ -3806,7 +3877,7 @@
         <v>110</v>
       </c>
       <c r="C111" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D111" s="1">
         <v>9.5000000000000001E-2</v>
@@ -3832,7 +3903,7 @@
         <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D112" s="1">
         <v>5.5E-2</v>
@@ -3858,7 +3929,7 @@
         <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D113" s="1">
         <v>0.32500000000000001</v>
@@ -3884,7 +3955,7 @@
         <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D114" s="1">
         <v>0.3</v>
@@ -3910,7 +3981,7 @@
         <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D115" s="1">
         <v>0.35</v>
@@ -3936,7 +4007,7 @@
         <v>115</v>
       </c>
       <c r="C116" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D116" s="1">
         <v>0.38</v>
@@ -3962,7 +4033,7 @@
         <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D117" s="1">
         <v>0.42499999999999999</v>
@@ -3988,7 +4059,7 @@
         <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D118" s="1">
         <v>0.4</v>
@@ -4014,7 +4085,7 @@
         <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D119" s="1">
         <v>0.3</v>
@@ -4040,7 +4111,7 @@
         <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D120" s="1">
         <v>0.33600000000000002</v>
@@ -4078,7 +4149,7 @@
         <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D121" s="1">
         <v>0.40100000000000002</v>
@@ -4116,7 +4187,7 @@
         <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D122" s="1">
         <v>0.56000000000000005</v>
@@ -4154,7 +4225,7 @@
         <v>122</v>
       </c>
       <c r="C123" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D123" s="1">
         <v>0.442</v>
@@ -4192,7 +4263,7 @@
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D124" s="1">
         <v>0.39700000000000002</v>
@@ -4230,7 +4301,7 @@
         <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D125" s="1">
         <v>0.8</v>
@@ -4265,7 +4336,7 @@
         <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D126" s="1">
         <v>0.47</v>
@@ -4297,7 +4368,7 @@
         <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D127" s="1">
         <v>1.23</v>
@@ -4329,7 +4400,7 @@
         <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D128" s="1">
         <v>0.93</v>
@@ -4361,7 +4432,7 @@
         <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D129" s="1">
         <v>1.36</v>
@@ -4393,7 +4464,7 @@
         <v>129</v>
       </c>
       <c r="C130" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D130" s="1">
         <v>0.16</v>
@@ -4425,7 +4496,7 @@
         <v>130</v>
       </c>
       <c r="C131" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D131" s="1">
         <v>0.32</v>
@@ -4457,7 +4528,7 @@
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D132" s="1">
         <v>0.24</v>
@@ -4489,7 +4560,7 @@
         <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D133" s="1">
         <v>0.27</v>
@@ -4521,7 +4592,7 @@
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D134" s="1">
         <v>0.25</v>
@@ -4553,7 +4624,7 @@
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D135" s="1">
         <v>0.2</v>
@@ -4585,7 +4656,7 @@
         <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D136" s="1">
         <v>0.8</v>
@@ -4611,7 +4682,7 @@
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D137">
         <v>4.2815913999999997E-2</v>
@@ -4649,7 +4720,7 @@
         <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D138">
         <v>0.11393120299999999</v>
@@ -4687,7 +4758,7 @@
         <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D139">
         <v>6.1765646E-2</v>
@@ -4725,7 +4796,7 @@
         <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D140">
         <v>0.22</v>
@@ -4763,7 +4834,7 @@
         <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D141">
         <v>0.105</v>
@@ -4801,7 +4872,7 @@
         <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D142">
         <v>7.6999999999999999E-2</v>
@@ -4839,7 +4910,7 @@
         <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D143">
         <v>5.1999999999999998E-2</v>
@@ -4877,7 +4948,7 @@
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D144">
         <v>4.7E-2</v>
@@ -4915,7 +4986,7 @@
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D145">
         <v>0.104</v>
@@ -4953,7 +5024,7 @@
         <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D146">
         <v>0.18717695200000001</v>
@@ -4991,7 +5062,7 @@
         <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D147">
         <v>0.19052889200000001</v>
@@ -5029,7 +5100,7 @@
         <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D148">
         <v>0.18028339199999999</v>
@@ -5067,7 +5138,7 @@
         <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D149">
         <v>0.159097091</v>
@@ -5105,7 +5176,7 @@
         <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D150">
         <v>0.129223278</v>
@@ -5143,7 +5214,7 @@
         <v>150</v>
       </c>
       <c r="C151" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D151">
         <v>0.14391696264953083</v>
@@ -5181,7 +5252,7 @@
         <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D152">
         <v>0.17624625323468679</v>
@@ -5219,7 +5290,7 @@
         <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D153">
         <v>0.17430180670088127</v>
@@ -5257,7 +5328,7 @@
         <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D154">
         <v>9.2924905650796835E-2</v>
@@ -5295,7 +5366,7 @@
         <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D155">
         <v>7.440288767155169E-2</v>
@@ -5333,7 +5404,7 @@
         <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D156">
         <v>0.124165231</v>
@@ -5371,7 +5442,7 @@
         <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D157">
         <v>0.37037624499999999</v>
@@ -5409,7 +5480,7 @@
         <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D158">
         <v>0.31975399999999998</v>
@@ -5447,7 +5518,7 @@
         <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D159">
         <v>0.25733781900000002</v>
@@ -5485,7 +5556,7 @@
         <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D160">
         <v>0.19350246500000001</v>
@@ -5523,7 +5594,7 @@
         <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D161">
         <v>1.253543310846242E-2</v>
@@ -5561,7 +5632,7 @@
         <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D162">
         <v>3.8332987027192407E-2</v>
@@ -5599,7 +5670,7 @@
         <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D163">
         <v>0.10118202437186954</v>
@@ -5637,7 +5708,7 @@
         <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D164">
         <v>0.19860087071794363</v>
@@ -5675,7 +5746,7 @@
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D165">
         <v>0.16384179726813897</v>
@@ -5713,7 +5784,7 @@
         <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D166">
         <v>0.17018720541138677</v>
@@ -5751,7 +5822,7 @@
         <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D167">
         <v>4.12426964558155E-4</v>
@@ -5789,7 +5860,7 @@
         <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D168">
         <v>7.1393382854981532E-3</v>
@@ -5827,7 +5898,7 @@
         <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D169">
         <v>3.7411549535651435E-2</v>
@@ -5865,7 +5936,7 @@
         <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D170">
         <v>7.2671824796553403E-2</v>
@@ -5903,7 +5974,7 @@
         <v>170</v>
       </c>
       <c r="C171" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D171">
         <v>6.3778600038790087E-2</v>
@@ -5941,7 +6012,7 @@
         <v>171</v>
       </c>
       <c r="C172" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D172">
         <v>2.7641647066358958E-2</v>
@@ -5979,7 +6050,7 @@
         <v>172</v>
       </c>
       <c r="C173" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D173">
         <v>4.6912305061686276E-2</v>
@@ -6017,7 +6088,7 @@
         <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D174">
         <v>1.194289322668589E-2</v>
@@ -6055,7 +6126,7 @@
         <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D175">
         <v>4.2119676828936081E-2</v>
@@ -6093,7 +6164,7 @@
         <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D176">
         <v>0.14800354504202118</v>
@@ -6131,7 +6202,7 @@
         <v>176</v>
       </c>
       <c r="C177" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D177">
         <v>0.11180843536589069</v>
@@ -6169,7 +6240,7 @@
         <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D178">
         <v>0.16362647154408475</v>
@@ -6207,7 +6278,7 @@
         <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D179">
         <v>0.14164765861196901</v>
@@ -6247,7 +6318,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M29"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6267,836 +6338,933 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>24</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1.35</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="12">
+        <v>55000000</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9">
+        <v>60</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>25</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="12">
+        <v>55000000</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9">
+        <v>60</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>26</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2.25</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="12">
+        <v>50500000</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9">
+        <v>80</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>27</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="12">
+        <v>50500000</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1.05</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9">
+        <v>80</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>28</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="B6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2.65</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="12">
+        <v>50500000</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1.05</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9">
+        <v>80</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>29</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="B7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9">
+        <v>40</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9">
+        <v>40</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="9">
+        <v>-196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>30</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="B8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9">
+        <v>38</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9">
+        <v>40</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="9">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>31</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="B9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9">
+        <v>60</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9">
+        <v>40</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="9">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>32</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="B10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="12">
+        <v>5500000</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9">
+        <v>60</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>33</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="B11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="12">
+        <v>550000</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9">
+        <v>60</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>34</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="12">
+        <v>50000000</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1.65</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9">
+        <v>60</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>51</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.104</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E13" s="9">
+        <v>14</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9">
+        <v>30</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>52</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="9">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E14" s="9">
+        <v>15.2</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9">
+        <v>30</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>53</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="9">
+        <v>2.06E-2</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E15" s="9">
+        <v>14.07</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9">
+        <v>30</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>54</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="9">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="D16" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E16" s="9">
+        <v>15</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9">
+        <v>30</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>74</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13">
+        <v>100</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>75</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13">
+        <v>100</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>76</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13">
+        <v>100</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>77</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13">
+        <v>100</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>78</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13">
+        <v>100</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>79</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9">
+        <v>40</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>80</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="12">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9">
+        <v>40</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>81</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9">
+        <v>60</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>82</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9">
+        <v>60</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>125</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="D26" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E26" s="9">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2">
-        <v>1.35</v>
-      </c>
-      <c r="F2" s="1">
-        <v>55000000</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0.9</v>
-      </c>
-      <c r="K2">
-        <v>-60</v>
-      </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3">
-        <v>1.75</v>
-      </c>
-      <c r="F3" s="1">
-        <v>55000000</v>
-      </c>
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0.9</v>
-      </c>
-      <c r="K3">
-        <v>-60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4">
-        <v>2.25</v>
-      </c>
-      <c r="F4" s="1">
-        <v>50500000</v>
-      </c>
-      <c r="G4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1.2</v>
-      </c>
-      <c r="K4">
-        <v>-80</v>
-      </c>
-      <c r="L4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F5" s="1">
-        <v>50500000</v>
-      </c>
-      <c r="G5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1.05</v>
-      </c>
-      <c r="K5">
-        <v>-80</v>
-      </c>
-      <c r="L5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6">
-        <v>2.65</v>
-      </c>
-      <c r="F6" s="1">
-        <v>50500000</v>
-      </c>
-      <c r="G6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1.05</v>
-      </c>
-      <c r="K6">
-        <v>-80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7">
-        <v>0.03</v>
-      </c>
-      <c r="E7">
-        <v>40</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>-40</v>
-      </c>
-      <c r="L7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7">
-        <v>-196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="E8">
-        <v>38</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>-40</v>
-      </c>
-      <c r="L8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9">
-        <v>1.2</v>
-      </c>
-      <c r="E9">
-        <v>60</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>-40</v>
-      </c>
-      <c r="L9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="F26" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>126</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="D27" s="9">
+        <v>2E-3</v>
+      </c>
+      <c r="E27" s="9">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10">
-        <v>0.9</v>
-      </c>
-      <c r="F10" s="1">
-        <v>5500000</v>
-      </c>
-      <c r="G10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K10">
-        <v>-60</v>
-      </c>
-      <c r="L10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F11" s="1">
-        <v>550000</v>
-      </c>
-      <c r="G11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K11">
-        <v>-60</v>
-      </c>
-      <c r="L11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12">
-        <v>1.8</v>
-      </c>
-      <c r="F12" s="1">
-        <v>50000000</v>
-      </c>
-      <c r="G12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1.65</v>
-      </c>
-      <c r="K12">
-        <v>-60</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="F27" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M27" s="9"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>127</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="E28" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13">
-        <v>0.104</v>
-      </c>
-      <c r="D13">
-        <v>2.4E-2</v>
-      </c>
-      <c r="E13">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>2</v>
-      </c>
-      <c r="K13">
-        <v>-30</v>
-      </c>
-      <c r="L13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14">
-        <v>7.1599999999999997E-2</v>
-      </c>
-      <c r="D14">
-        <v>0.02</v>
-      </c>
-      <c r="E14">
-        <v>15.2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14">
-        <v>-30</v>
-      </c>
-      <c r="L14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15">
-        <v>2.06E-2</v>
-      </c>
-      <c r="D15">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E15">
-        <v>14.07</v>
-      </c>
-      <c r="G15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>-30</v>
-      </c>
-      <c r="L15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="D16">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>2</v>
-      </c>
-      <c r="K16">
-        <v>-30</v>
-      </c>
-      <c r="L16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>74</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2">
-        <v>-100</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>75</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2">
-        <v>-100</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>76</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2">
-        <v>-100</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>77</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2">
-        <v>-100</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>78</v>
-      </c>
-      <c r="B21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2">
-        <v>-100</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>79</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22">
-        <v>0.06</v>
-      </c>
-      <c r="F22" s="1">
-        <v>100000</v>
-      </c>
-      <c r="G22" t="s">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>-40</v>
-      </c>
-      <c r="L22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>80</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="1">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="F23" s="1">
-        <v>100000</v>
-      </c>
-      <c r="G23" t="s">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>-40</v>
-      </c>
-      <c r="L23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>81</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
-        <v>2</v>
-      </c>
-      <c r="K24">
-        <v>-60</v>
-      </c>
-      <c r="L24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>82</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25">
-        <v>0.24</v>
-      </c>
-      <c r="G25" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
-        <v>2</v>
-      </c>
-      <c r="K25">
-        <v>-60</v>
-      </c>
-      <c r="L25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>125</v>
-      </c>
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26">
-        <v>0.02</v>
-      </c>
-      <c r="D26">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E26">
-        <v>24</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="F28" s="12">
         <v>1000000</v>
       </c>
-      <c r="G26" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
-        <v>2</v>
-      </c>
-      <c r="L26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>126</v>
-      </c>
-      <c r="B27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27">
-        <v>0.02</v>
-      </c>
-      <c r="D27">
-        <v>2E-3</v>
-      </c>
-      <c r="E27">
-        <v>32</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="G28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>128</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1.56</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="F29" s="12">
         <v>1000000</v>
       </c>
-      <c r="G27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
-        <v>2</v>
-      </c>
-      <c r="L27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>127</v>
-      </c>
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D28">
-        <v>0.06</v>
-      </c>
-      <c r="E28">
-        <v>10</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="G28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>128</v>
-      </c>
-      <c r="B29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29">
-        <v>1.56</v>
-      </c>
-      <c r="D29">
-        <v>0.49</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="G29" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" t="s">
-        <v>25</v>
-      </c>
+      <c r="G29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M29" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7107,8 +7275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49366654-A1E2-4FE5-BB3C-541B591A5C82}">
   <dimension ref="A1:N207"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="A207" sqref="A180:A207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7118,7 +7286,7 @@
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
     <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.7109375" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
@@ -15457,8 +15625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB86B5E-C631-4723-855D-44F3BE3B9BDA}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/db_feed/DPPDTT/DPPDTT_dataset_feed_D6_measurements.xlsx
+++ b/db_feed/DPPDTT/DPPDTT_dataset_feed_D6_measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\DPPDTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C4628F-96BE-411C-8D70-3BE57D947778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C60590-F98B-4AF3-A175-B91C926F9189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E5C2630-BF0B-4FF5-955F-75701201CD0D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E5C2630-BF0B-4FF5-955F-75701201CD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="ofet_hole" sheetId="1" r:id="rId1"/>
@@ -328,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -338,10 +338,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -661,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172B31CE-7F42-41AE-8B2B-80B2F4C6D6E0}">
   <dimension ref="A1:N179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +666,7 @@
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
@@ -6338,933 +6334,836 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2">
         <v>24</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2">
         <v>1.35</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="12">
+      <c r="F2" s="1">
         <v>55000000</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2">
         <v>0.9</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9">
+      <c r="K2">
         <v>60</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3">
         <v>25</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3">
         <v>1.75</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="12">
+      <c r="F3" s="1">
         <v>55000000</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3">
         <v>0.9</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9">
+      <c r="K3">
         <v>60</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4">
         <v>26</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4">
         <v>2.25</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="12">
+      <c r="F4" s="1">
         <v>50500000</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4">
         <v>1.2</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9">
+      <c r="K4">
         <v>80</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5">
         <v>27</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
         <v>2.5499999999999998</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="12">
+      <c r="F5" s="1">
         <v>50500000</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5">
         <v>1.05</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9">
+      <c r="K5">
         <v>80</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" t="s">
         <v>66</v>
       </c>
-      <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6">
         <v>28</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6">
         <v>2.65</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="12">
+      <c r="F6" s="1">
         <v>50500000</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6">
         <v>1.05</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9">
+      <c r="K6">
         <v>80</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" t="s">
         <v>66</v>
       </c>
-      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7">
         <v>29</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
         <v>0.03</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
+      <c r="E7">
         <v>40</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9">
+      <c r="F7" s="1"/>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7">
         <v>40</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7">
         <v>-196</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8">
         <v>30</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9">
+      <c r="E8">
         <v>38</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9">
+      <c r="F8" s="1"/>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8">
         <v>40</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8">
         <v>-46</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9">
         <v>31</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9">
         <v>1.2</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
+      <c r="E9">
         <v>60</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9">
+      <c r="F9" s="1"/>
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9">
         <v>40</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10">
         <v>32</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10">
         <v>0.9</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="12">
+      <c r="F10" s="1">
         <v>5500000</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9" t="s">
+      <c r="G10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9">
+      <c r="K10">
         <v>60</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11">
         <v>33</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="12">
+      <c r="F11" s="1">
         <v>550000</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9" t="s">
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9">
+      <c r="K11">
         <v>60</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" t="s">
         <v>60</v>
       </c>
-      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12">
         <v>34</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12">
         <v>1.8</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="12">
+      <c r="F12" s="1">
         <v>50000000</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9" t="s">
+      <c r="G12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12">
         <v>1.65</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9">
+      <c r="K12">
         <v>60</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" t="s">
         <v>67</v>
       </c>
-      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13">
         <v>51</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13">
         <v>0.104</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13">
         <v>2.4E-2</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13">
         <v>14</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9">
+      <c r="G13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13">
         <v>30</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" t="s">
         <v>62</v>
       </c>
-      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14">
         <v>52</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>7.1599999999999997E-2</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14">
         <v>0.02</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14">
         <v>15.2</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9">
+      <c r="G14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14">
         <v>30</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" t="s">
         <v>62</v>
       </c>
-      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>53</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="A15">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15">
         <v>2.06E-2</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15">
         <v>14.07</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9">
+      <c r="G15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15">
         <v>30</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" t="s">
         <v>62</v>
       </c>
-      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16">
         <v>54</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="9">
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16">
         <v>15</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9">
+      <c r="G16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16">
         <v>30</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" t="s">
         <v>62</v>
       </c>
-      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17">
         <v>74</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="13">
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="9">
         <v>1</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9">
         <v>100</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="M17" s="14"/>
+      <c r="M17" s="10"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18">
         <v>75</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="13">
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="9">
         <v>0.35</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9">
         <v>100</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="M18" s="14"/>
+      <c r="M18" s="10"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19">
         <v>76</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="15">
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="11">
         <v>0.01</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9">
         <v>100</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="M19" s="14"/>
+      <c r="M19" s="10"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20">
         <v>77</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="13">
-        <v>0</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13">
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9">
         <v>100</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="M20" s="14"/>
+      <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21">
         <v>78</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="13">
-        <v>0</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13">
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9">
         <v>100</v>
       </c>
-      <c r="L21" s="13" t="s">
+      <c r="L21" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="M21" s="14"/>
+      <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22">
         <v>79</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="9">
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22">
         <v>0.06</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="12">
+      <c r="F22" s="1">
         <v>100000</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9">
+      <c r="G22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>40</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="L22" t="s">
         <v>68</v>
       </c>
-      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23">
         <v>80</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="12">
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="12">
+      <c r="F23" s="1">
         <v>100000</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9">
+      <c r="G23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>40</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="L23" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="9"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24">
         <v>81</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="9">
-        <v>0</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9">
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24">
         <v>60</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="L24" t="s">
         <v>64</v>
       </c>
-      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25">
         <v>82</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="9">
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
         <v>0.24</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9">
+      <c r="G25" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25">
         <v>60</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="L25" t="s">
         <v>65</v>
       </c>
-      <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26">
         <v>125</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="9">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
         <v>0.02</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26">
         <v>24</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="1">
         <v>1000000</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9" t="s">
+      <c r="G26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" t="s">
         <v>69</v>
       </c>
-      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27">
         <v>126</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="9">
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27">
         <v>0.02</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27">
         <v>2E-3</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27">
         <v>32</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="1">
         <v>1000000</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9" t="s">
+      <c r="G27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" t="s">
         <v>69</v>
       </c>
-      <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28">
         <v>127</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="9">
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28">
         <v>0.06</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28">
         <v>10</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="1">
         <v>1000000</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9" t="s">
+      <c r="G28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" t="s">
         <v>69</v>
       </c>
-      <c r="M28" s="9"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29">
         <v>128</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="9">
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29">
         <v>1.56</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29">
         <v>0.49</v>
       </c>
-      <c r="E29" s="9">
-        <v>0</v>
-      </c>
-      <c r="F29" s="12">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
         <v>1000000</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9" t="s">
+      <c r="G29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" t="s">
         <v>69</v>
       </c>
-      <c r="M29" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db_feed/DPPDTT/DPPDTT_dataset_feed_D6_measurements.xlsx
+++ b/db_feed/DPPDTT/DPPDTT_dataset_feed_D6_measurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\DPPDTT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\db_feed\DPPDTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C60590-F98B-4AF3-A175-B91C926F9189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E618DA40-69F0-496F-AEA6-DA831A830BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E5C2630-BF0B-4FF5-955F-75701201CD0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2E5C2630-BF0B-4FF5-955F-75701201CD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="ofet_hole" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="69">
   <si>
     <t>saturation</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>forward</t>
-  </si>
-  <si>
-    <t>data.mobility.value</t>
   </si>
   <si>
     <t>data.mobility.error</t>
@@ -647,7 +644,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -657,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172B31CE-7F42-41AE-8B2B-80B2F4C6D6E0}">
   <dimension ref="A1:N179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,46 +677,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="G1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -730,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <v>0.11</v>
@@ -759,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3">
         <v>0.28999999999999998</v>
@@ -788,7 +785,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>0.23</v>
@@ -817,7 +814,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5">
         <v>0.73</v>
@@ -846,7 +843,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6">
         <v>1.86</v>
@@ -875,7 +872,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7">
         <v>0.21</v>
@@ -904,7 +901,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8">
         <v>0.34</v>
@@ -933,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9">
         <v>0.24</v>
@@ -962,7 +959,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10">
         <v>1.97</v>
@@ -991,7 +988,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11">
         <v>0.69</v>
@@ -1020,7 +1017,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>2.04</v>
@@ -1049,7 +1046,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13">
         <v>0.81</v>
@@ -1075,7 +1072,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14">
         <v>1.53</v>
@@ -1101,7 +1098,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15">
         <v>0.9</v>
@@ -1127,7 +1124,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16">
         <v>1.1000000000000001</v>
@@ -1153,7 +1150,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17">
         <v>1.25</v>
@@ -1179,7 +1176,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18">
         <v>1.3</v>
@@ -1205,7 +1202,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19">
         <v>1.25</v>
@@ -1231,7 +1228,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20">
         <v>0.9</v>
@@ -1257,7 +1254,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21">
         <v>0.6</v>
@@ -1283,7 +1280,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1303,7 +1300,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23">
         <v>3.8</v>
@@ -1323,7 +1320,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24">
         <v>8.5</v>
@@ -1343,7 +1340,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25">
         <v>6.85</v>
@@ -1378,7 +1375,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26">
         <v>7.25</v>
@@ -1413,7 +1410,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27">
         <v>5.75</v>
@@ -1448,7 +1445,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28">
         <v>7.95</v>
@@ -1483,7 +1480,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29">
         <v>7.85</v>
@@ -1518,7 +1515,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30">
         <v>0.15</v>
@@ -1551,7 +1548,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31">
         <v>2.1</v>
@@ -1584,7 +1581,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32">
         <v>9</v>
@@ -1617,7 +1614,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33">
         <v>4.4000000000000004</v>
@@ -1652,7 +1649,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34">
         <v>2.65</v>
@@ -1687,7 +1684,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D35">
         <v>3.5</v>
@@ -1722,7 +1719,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D36">
         <v>1.1599999999999999</v>
@@ -1751,7 +1748,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D37">
         <v>3.39</v>
@@ -1780,7 +1777,7 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38">
         <v>5.8</v>
@@ -1809,7 +1806,7 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D39">
         <v>6.76</v>
@@ -1838,7 +1835,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40">
         <v>2.57</v>
@@ -1867,7 +1864,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41">
         <v>6</v>
@@ -1890,7 +1887,7 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -1913,7 +1910,7 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43">
         <v>4</v>
@@ -1936,7 +1933,7 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D44" s="1">
         <v>2.9999999999999997E-4</v>
@@ -1962,7 +1959,7 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D45" s="1">
         <v>8.4999999999999995E-4</v>
@@ -1988,7 +1985,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D46" s="1">
         <v>3.5000000000000001E-3</v>
@@ -2014,7 +2011,7 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D47" s="1">
         <v>5.6999999999999998E-4</v>
@@ -2040,7 +2037,7 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D48" s="1">
         <v>9.5000000000000005E-5</v>
@@ -2066,7 +2063,7 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D49" s="1">
         <v>2.0000000000000001E-4</v>
@@ -2092,7 +2089,7 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D50" s="1">
         <v>1.0200000000000001E-3</v>
@@ -2118,7 +2115,7 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D51" s="1">
         <v>3.6499999999999998E-4</v>
@@ -2144,7 +2141,7 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D52">
         <v>4.8399999999999999E-2</v>
@@ -2176,7 +2173,7 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D53">
         <v>0.1812</v>
@@ -2208,7 +2205,7 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D54">
         <v>9.01E-2</v>
@@ -2240,7 +2237,7 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D55">
         <v>6.4100000000000004E-2</v>
@@ -2272,7 +2269,7 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D56">
         <v>0.2</v>
@@ -2307,7 +2304,7 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D57">
         <v>0.09</v>
@@ -2336,7 +2333,7 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D58">
         <v>0.14000000000000001</v>
@@ -2365,7 +2362,7 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D59" s="1">
         <v>1.4999999999999999E-4</v>
@@ -2397,7 +2394,7 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D60" s="1">
         <v>0.02</v>
@@ -2429,7 +2426,7 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D61" s="1">
         <v>0.06</v>
@@ -2461,7 +2458,7 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D62" s="1">
         <v>0.15</v>
@@ -2493,7 +2490,7 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D63" s="1">
         <v>0.45</v>
@@ -2525,7 +2522,7 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D64" s="1">
         <v>4.4999999999999999E-4</v>
@@ -2557,7 +2554,7 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D65" s="1">
         <v>0.45</v>
@@ -2589,7 +2586,7 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D66" s="1">
         <v>0.2</v>
@@ -2621,7 +2618,7 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D67" s="1">
         <v>0.8</v>
@@ -2653,7 +2650,7 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D68" s="1">
         <v>0.5</v>
@@ -2685,7 +2682,7 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D69" s="1">
         <v>0.11</v>
@@ -2723,7 +2720,7 @@
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D70" s="1">
         <v>0.3</v>
@@ -2761,7 +2758,7 @@
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D71" s="1">
         <v>0.1</v>
@@ -2799,7 +2796,7 @@
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D72" s="1">
         <v>0.11</v>
@@ -2837,7 +2834,7 @@
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D73" s="1">
         <v>0.02</v>
@@ -2872,7 +2869,7 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D74">
         <v>0.02</v>
@@ -2907,7 +2904,7 @@
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D75" s="3">
         <v>2</v>
@@ -2939,7 +2936,7 @@
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
@@ -2971,7 +2968,7 @@
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D77" s="3">
         <v>0.1</v>
@@ -3003,7 +3000,7 @@
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D78" s="3">
         <v>0.1</v>
@@ -3035,7 +3032,7 @@
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D79" s="3">
         <v>0.01</v>
@@ -3067,7 +3064,7 @@
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D80" s="1">
         <v>0.14000000000000001</v>
@@ -3093,7 +3090,7 @@
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D81" s="1">
         <v>0.3</v>
@@ -3119,7 +3116,7 @@
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D82" s="1">
         <v>0.1</v>
@@ -3145,7 +3142,7 @@
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D83" s="1">
         <v>8.4000000000000005E-2</v>
@@ -3171,7 +3168,7 @@
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D84" s="1">
         <v>0.1</v>
@@ -3197,7 +3194,7 @@
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D85" s="1">
         <v>0.17</v>
@@ -3223,7 +3220,7 @@
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D86" s="1">
         <v>0.15</v>
@@ -3249,7 +3246,7 @@
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D87" s="1">
         <v>0.28000000000000003</v>
@@ -3275,7 +3272,7 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D88" s="1">
         <v>0.2</v>
@@ -3301,7 +3298,7 @@
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D89" s="1">
         <v>0.28999999999999998</v>
@@ -3327,7 +3324,7 @@
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D90" s="1">
         <v>0.32500000000000001</v>
@@ -3353,7 +3350,7 @@
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D91" s="1">
         <v>0.36</v>
@@ -3379,7 +3376,7 @@
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D92" s="1">
         <v>0.4</v>
@@ -3405,7 +3402,7 @@
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D93" s="1">
         <v>0.18</v>
@@ -3431,7 +3428,7 @@
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D94" s="1">
         <v>0.28000000000000003</v>
@@ -3457,7 +3454,7 @@
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D95" s="1">
         <v>0.23</v>
@@ -3483,7 +3480,7 @@
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D96" s="1">
         <v>0.315</v>
@@ -3509,7 +3506,7 @@
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D97" s="1">
         <v>0.18</v>
@@ -3535,7 +3532,7 @@
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D98" s="1">
         <v>0.28000000000000003</v>
@@ -3561,7 +3558,7 @@
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D99" s="1">
         <v>0.3</v>
@@ -3587,7 +3584,7 @@
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D100" s="1">
         <v>0.28000000000000003</v>
@@ -3613,7 +3610,7 @@
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D101" s="1">
         <v>0.27500000000000002</v>
@@ -3639,7 +3636,7 @@
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D102" s="1">
         <v>0.08</v>
@@ -3665,7 +3662,7 @@
         <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D103" s="1">
         <v>0.125</v>
@@ -3691,7 +3688,7 @@
         <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D104" s="1">
         <v>0.08</v>
@@ -3717,7 +3714,7 @@
         <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D105" s="1">
         <v>0.08</v>
@@ -3743,7 +3740,7 @@
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D106" s="1">
         <v>0.08</v>
@@ -3769,7 +3766,7 @@
         <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D107" s="1">
         <v>0.13</v>
@@ -3795,7 +3792,7 @@
         <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D108" s="1">
         <v>0.125</v>
@@ -3821,7 +3818,7 @@
         <v>108</v>
       </c>
       <c r="C109" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D109" s="1">
         <v>0.05</v>
@@ -3847,7 +3844,7 @@
         <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D110" s="1">
         <v>7.4999999999999997E-2</v>
@@ -3873,7 +3870,7 @@
         <v>110</v>
       </c>
       <c r="C111" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D111" s="1">
         <v>9.5000000000000001E-2</v>
@@ -3899,7 +3896,7 @@
         <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D112" s="1">
         <v>5.5E-2</v>
@@ -3925,7 +3922,7 @@
         <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D113" s="1">
         <v>0.32500000000000001</v>
@@ -3951,7 +3948,7 @@
         <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D114" s="1">
         <v>0.3</v>
@@ -3977,7 +3974,7 @@
         <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D115" s="1">
         <v>0.35</v>
@@ -4003,7 +4000,7 @@
         <v>115</v>
       </c>
       <c r="C116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D116" s="1">
         <v>0.38</v>
@@ -4029,7 +4026,7 @@
         <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D117" s="1">
         <v>0.42499999999999999</v>
@@ -4055,7 +4052,7 @@
         <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D118" s="1">
         <v>0.4</v>
@@ -4081,7 +4078,7 @@
         <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D119" s="1">
         <v>0.3</v>
@@ -4107,7 +4104,7 @@
         <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D120" s="1">
         <v>0.33600000000000002</v>
@@ -4145,7 +4142,7 @@
         <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D121" s="1">
         <v>0.40100000000000002</v>
@@ -4183,7 +4180,7 @@
         <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D122" s="1">
         <v>0.56000000000000005</v>
@@ -4221,7 +4218,7 @@
         <v>122</v>
       </c>
       <c r="C123" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D123" s="1">
         <v>0.442</v>
@@ -4259,7 +4256,7 @@
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D124" s="1">
         <v>0.39700000000000002</v>
@@ -4297,7 +4294,7 @@
         <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D125" s="1">
         <v>0.8</v>
@@ -4332,7 +4329,7 @@
         <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D126" s="1">
         <v>0.47</v>
@@ -4364,7 +4361,7 @@
         <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D127" s="1">
         <v>1.23</v>
@@ -4396,7 +4393,7 @@
         <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D128" s="1">
         <v>0.93</v>
@@ -4428,7 +4425,7 @@
         <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D129" s="1">
         <v>1.36</v>
@@ -4460,7 +4457,7 @@
         <v>129</v>
       </c>
       <c r="C130" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D130" s="1">
         <v>0.16</v>
@@ -4492,7 +4489,7 @@
         <v>130</v>
       </c>
       <c r="C131" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D131" s="1">
         <v>0.32</v>
@@ -4524,7 +4521,7 @@
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D132" s="1">
         <v>0.24</v>
@@ -4556,7 +4553,7 @@
         <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D133" s="1">
         <v>0.27</v>
@@ -4588,7 +4585,7 @@
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D134" s="1">
         <v>0.25</v>
@@ -4620,7 +4617,7 @@
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D135" s="1">
         <v>0.2</v>
@@ -4652,7 +4649,7 @@
         <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D136" s="1">
         <v>0.8</v>
@@ -4678,7 +4675,7 @@
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D137">
         <v>4.2815913999999997E-2</v>
@@ -4716,7 +4713,7 @@
         <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D138">
         <v>0.11393120299999999</v>
@@ -4754,7 +4751,7 @@
         <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D139">
         <v>6.1765646E-2</v>
@@ -4792,7 +4789,7 @@
         <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D140">
         <v>0.22</v>
@@ -4830,7 +4827,7 @@
         <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D141">
         <v>0.105</v>
@@ -4868,7 +4865,7 @@
         <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D142">
         <v>7.6999999999999999E-2</v>
@@ -4906,7 +4903,7 @@
         <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D143">
         <v>5.1999999999999998E-2</v>
@@ -4944,7 +4941,7 @@
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D144">
         <v>4.7E-2</v>
@@ -4982,7 +4979,7 @@
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D145">
         <v>0.104</v>
@@ -5020,7 +5017,7 @@
         <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D146">
         <v>0.18717695200000001</v>
@@ -5058,7 +5055,7 @@
         <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D147">
         <v>0.19052889200000001</v>
@@ -5096,7 +5093,7 @@
         <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D148">
         <v>0.18028339199999999</v>
@@ -5134,7 +5131,7 @@
         <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D149">
         <v>0.159097091</v>
@@ -5172,7 +5169,7 @@
         <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D150">
         <v>0.129223278</v>
@@ -5210,7 +5207,7 @@
         <v>150</v>
       </c>
       <c r="C151" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D151">
         <v>0.14391696264953083</v>
@@ -5248,7 +5245,7 @@
         <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D152">
         <v>0.17624625323468679</v>
@@ -5286,7 +5283,7 @@
         <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D153">
         <v>0.17430180670088127</v>
@@ -5324,7 +5321,7 @@
         <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D154">
         <v>9.2924905650796835E-2</v>
@@ -5362,7 +5359,7 @@
         <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D155">
         <v>7.440288767155169E-2</v>
@@ -5400,7 +5397,7 @@
         <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D156">
         <v>0.124165231</v>
@@ -5438,7 +5435,7 @@
         <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D157">
         <v>0.37037624499999999</v>
@@ -5476,7 +5473,7 @@
         <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D158">
         <v>0.31975399999999998</v>
@@ -5514,7 +5511,7 @@
         <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D159">
         <v>0.25733781900000002</v>
@@ -5552,7 +5549,7 @@
         <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D160">
         <v>0.19350246500000001</v>
@@ -5590,7 +5587,7 @@
         <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D161">
         <v>1.253543310846242E-2</v>
@@ -5628,7 +5625,7 @@
         <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D162">
         <v>3.8332987027192407E-2</v>
@@ -5666,7 +5663,7 @@
         <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D163">
         <v>0.10118202437186954</v>
@@ -5704,7 +5701,7 @@
         <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D164">
         <v>0.19860087071794363</v>
@@ -5742,7 +5739,7 @@
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D165">
         <v>0.16384179726813897</v>
@@ -5780,7 +5777,7 @@
         <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D166">
         <v>0.17018720541138677</v>
@@ -5818,7 +5815,7 @@
         <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D167">
         <v>4.12426964558155E-4</v>
@@ -5856,7 +5853,7 @@
         <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D168">
         <v>7.1393382854981532E-3</v>
@@ -5894,7 +5891,7 @@
         <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D169">
         <v>3.7411549535651435E-2</v>
@@ -5932,7 +5929,7 @@
         <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D170">
         <v>7.2671824796553403E-2</v>
@@ -5970,7 +5967,7 @@
         <v>170</v>
       </c>
       <c r="C171" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D171">
         <v>6.3778600038790087E-2</v>
@@ -6008,7 +6005,7 @@
         <v>171</v>
       </c>
       <c r="C172" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D172">
         <v>2.7641647066358958E-2</v>
@@ -6046,7 +6043,7 @@
         <v>172</v>
       </c>
       <c r="C173" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D173">
         <v>4.6912305061686276E-2</v>
@@ -6084,7 +6081,7 @@
         <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D174">
         <v>1.194289322668589E-2</v>
@@ -6122,7 +6119,7 @@
         <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D175">
         <v>4.2119676828936081E-2</v>
@@ -6160,7 +6157,7 @@
         <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D176">
         <v>0.14800354504202118</v>
@@ -6198,7 +6195,7 @@
         <v>176</v>
       </c>
       <c r="C177" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D177">
         <v>0.11180843536589069</v>
@@ -6236,7 +6233,7 @@
         <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D178">
         <v>0.16362647154408475</v>
@@ -6274,7 +6271,7 @@
         <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D179">
         <v>0.14164765861196901</v>
@@ -6311,858 +6308,942 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987BE227-44F4-41F7-A7B2-DD16DD8B0472}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="12" max="12" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>58</v>
+      <c r="C1" t="s">
+        <v>45</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>178</v>
+      </c>
+      <c r="B2">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2">
+        <v>1.35</v>
+      </c>
+      <c r="G2" s="1">
+        <v>55000000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0.9</v>
+      </c>
+      <c r="L2">
+        <v>60</v>
+      </c>
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>179</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3">
+        <v>1.75</v>
+      </c>
+      <c r="G3" s="1">
+        <v>55000000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0.9</v>
+      </c>
+      <c r="L3">
+        <v>60</v>
+      </c>
+      <c r="M3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>180</v>
+      </c>
+      <c r="B4">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4">
+        <v>2.25</v>
+      </c>
+      <c r="G4" s="1">
+        <v>50500000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1.2</v>
+      </c>
+      <c r="L4">
+        <v>80</v>
+      </c>
+      <c r="M4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>181</v>
+      </c>
+      <c r="B5">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50500000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1.05</v>
+      </c>
+      <c r="L5">
+        <v>80</v>
+      </c>
+      <c r="M5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>182</v>
+      </c>
+      <c r="B6">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6">
+        <v>2.65</v>
+      </c>
+      <c r="G6" s="1">
+        <v>50500000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1.05</v>
+      </c>
+      <c r="L6">
+        <v>80</v>
+      </c>
+      <c r="M6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>183</v>
+      </c>
+      <c r="B7">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7">
+        <v>0.03</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>40</v>
+      </c>
+      <c r="M7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7">
+        <v>-196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>184</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F8">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>40</v>
+      </c>
+      <c r="M8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>185</v>
+      </c>
+      <c r="B9">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>1.2</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>186</v>
+      </c>
+      <c r="B10">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10">
+        <v>0.9</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5500000</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L10">
+        <v>60</v>
+      </c>
+      <c r="M10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>187</v>
+      </c>
+      <c r="B11">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>550000</v>
+      </c>
+      <c r="H11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L11">
+        <v>60</v>
+      </c>
+      <c r="M11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>188</v>
+      </c>
+      <c r="B12">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>1.8</v>
+      </c>
+      <c r="G12" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1.65</v>
+      </c>
+      <c r="L12">
+        <v>60</v>
+      </c>
+      <c r="M12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>189</v>
+      </c>
+      <c r="B13">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13">
+        <v>0.104</v>
+      </c>
+      <c r="E13">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F13">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>30</v>
+      </c>
+      <c r="M13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>190</v>
+      </c>
+      <c r="B14">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.02</v>
+      </c>
+      <c r="F14">
+        <v>15.2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>30</v>
+      </c>
+      <c r="M14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>191</v>
+      </c>
+      <c r="B15">
         <v>53</v>
       </c>
-      <c r="C2">
-        <v>1.35</v>
-      </c>
-      <c r="F2" s="1">
-        <v>55000000</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <v>2.06E-2</v>
+      </c>
+      <c r="E15">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F15">
+        <v>14.07</v>
+      </c>
+      <c r="H15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>30</v>
+      </c>
+      <c r="M15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>192</v>
+      </c>
+      <c r="B16">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="E16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>30</v>
+      </c>
+      <c r="M16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>193</v>
+      </c>
+      <c r="B17">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="9">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>0.9</v>
-      </c>
-      <c r="K2">
-        <v>60</v>
-      </c>
-      <c r="L2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3">
-        <v>1.75</v>
-      </c>
-      <c r="F3" s="1">
-        <v>55000000</v>
-      </c>
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0.9</v>
-      </c>
-      <c r="K3">
-        <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4">
-        <v>2.25</v>
-      </c>
-      <c r="F4" s="1">
-        <v>50500000</v>
-      </c>
-      <c r="G4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1.2</v>
-      </c>
-      <c r="K4">
-        <v>80</v>
-      </c>
-      <c r="L4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F5" s="1">
-        <v>50500000</v>
-      </c>
-      <c r="G5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1.05</v>
-      </c>
-      <c r="K5">
-        <v>80</v>
-      </c>
-      <c r="L5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6">
-        <v>2.65</v>
-      </c>
-      <c r="F6" s="1">
-        <v>50500000</v>
-      </c>
-      <c r="G6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1.05</v>
-      </c>
-      <c r="K6">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7">
-        <v>0.03</v>
-      </c>
-      <c r="E7">
-        <v>40</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>40</v>
-      </c>
-      <c r="L7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M7">
-        <v>-196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="E8">
-        <v>38</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>40</v>
-      </c>
-      <c r="L8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M8">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9">
-        <v>1.2</v>
-      </c>
-      <c r="E9">
-        <v>60</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>40</v>
-      </c>
-      <c r="L9" t="s">
-        <v>61</v>
-      </c>
-      <c r="M9">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10">
-        <v>0.9</v>
-      </c>
-      <c r="F10" s="1">
-        <v>5500000</v>
-      </c>
-      <c r="G10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K10">
-        <v>60</v>
-      </c>
-      <c r="L10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F11" s="1">
-        <v>550000</v>
-      </c>
-      <c r="G11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K11">
-        <v>60</v>
-      </c>
-      <c r="L11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12">
-        <v>1.8</v>
-      </c>
-      <c r="F12" s="1">
-        <v>50000000</v>
-      </c>
-      <c r="G12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1.65</v>
-      </c>
-      <c r="K12">
-        <v>60</v>
-      </c>
-      <c r="L12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13">
-        <v>0.104</v>
-      </c>
-      <c r="D13">
-        <v>2.4E-2</v>
-      </c>
-      <c r="E13">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>2</v>
-      </c>
-      <c r="K13">
-        <v>30</v>
-      </c>
-      <c r="L13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14">
-        <v>7.1599999999999997E-2</v>
-      </c>
-      <c r="D14">
-        <v>0.02</v>
-      </c>
-      <c r="E14">
-        <v>15.2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14">
-        <v>30</v>
-      </c>
-      <c r="L14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15">
-        <v>2.06E-2</v>
-      </c>
-      <c r="D15">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E15">
-        <v>14.07</v>
-      </c>
-      <c r="G15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>30</v>
-      </c>
-      <c r="L15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="D16">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>2</v>
-      </c>
-      <c r="K16">
-        <v>30</v>
-      </c>
-      <c r="L16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>74</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="9">
-        <v>1</v>
-      </c>
-      <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I17" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="J17" s="9"/>
-      <c r="K17" s="9">
+      <c r="K17" s="9"/>
+      <c r="L17" s="9">
         <v>100</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="M17" s="10"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>194</v>
+      </c>
+      <c r="B18">
         <v>75</v>
       </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="9">
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="9">
         <v>0.35</v>
       </c>
-      <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="G18" s="9"/>
       <c r="H18" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="J18" s="9"/>
-      <c r="K18" s="9">
+      <c r="K18" s="9"/>
+      <c r="L18" s="9">
         <v>100</v>
       </c>
-      <c r="L18" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="M18" s="10"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N18" s="10"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>195</v>
+      </c>
+      <c r="B19">
         <v>76</v>
       </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="11">
         <v>0.01</v>
       </c>
-      <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="G19" s="9"/>
       <c r="H19" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="J19" s="9"/>
-      <c r="K19" s="9">
+      <c r="K19" s="9"/>
+      <c r="L19" s="9">
         <v>100</v>
       </c>
-      <c r="L19" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="M19" s="10"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>196</v>
+      </c>
+      <c r="B20">
         <v>77</v>
       </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="9">
-        <v>0</v>
-      </c>
-      <c r="D20" s="9"/>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="G20" s="9"/>
       <c r="H20" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="J20" s="9"/>
-      <c r="K20" s="9">
+      <c r="K20" s="9"/>
+      <c r="L20" s="9">
         <v>100</v>
       </c>
-      <c r="L20" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="M20" s="10"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>197</v>
+      </c>
+      <c r="B21">
         <v>78</v>
       </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="9">
-        <v>0</v>
-      </c>
-      <c r="D21" s="9"/>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="G21" s="9"/>
       <c r="H21" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="J21" s="9"/>
-      <c r="K21" s="9">
+      <c r="K21" s="9"/>
+      <c r="L21" s="9">
         <v>100</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="M21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N21" s="10"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>198</v>
+      </c>
+      <c r="B22">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22">
+        <v>0.06</v>
+      </c>
+      <c r="G22" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H22" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>40</v>
+      </c>
+      <c r="M22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>199</v>
+      </c>
+      <c r="B23">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="1">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="G23" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>40</v>
+      </c>
+      <c r="M23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>200</v>
+      </c>
+      <c r="B24">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>60</v>
+      </c>
+      <c r="M24" t="s">
         <v>63</v>
       </c>
-      <c r="M21" s="10"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>79</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>201</v>
+      </c>
+      <c r="B25">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25">
+        <v>0.24</v>
+      </c>
+      <c r="H25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>60</v>
+      </c>
+      <c r="M25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>202</v>
+      </c>
+      <c r="B26">
+        <v>125</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26">
+        <v>0.02</v>
+      </c>
+      <c r="E26">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F26">
+        <v>24</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>203</v>
+      </c>
+      <c r="B27">
+        <v>126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27">
+        <v>0.02</v>
+      </c>
+      <c r="E27">
+        <v>2E-3</v>
+      </c>
+      <c r="F27">
+        <v>32</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>204</v>
+      </c>
+      <c r="B28">
+        <v>127</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E28">
         <v>0.06</v>
       </c>
-      <c r="F22" s="1">
-        <v>100000</v>
-      </c>
-      <c r="G22" t="s">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>40</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H28" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>80</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="1">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="F23" s="1">
-        <v>100000</v>
-      </c>
-      <c r="G23" t="s">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>40</v>
-      </c>
-      <c r="L23" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>205</v>
+      </c>
+      <c r="B29">
+        <v>128</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29">
+        <v>1.56</v>
+      </c>
+      <c r="E29">
+        <v>0.49</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>2</v>
+      </c>
+      <c r="M29" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>81</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
-        <v>2</v>
-      </c>
-      <c r="K24">
-        <v>60</v>
-      </c>
-      <c r="L24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>82</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25">
-        <v>0.24</v>
-      </c>
-      <c r="G25" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
-        <v>2</v>
-      </c>
-      <c r="K25">
-        <v>60</v>
-      </c>
-      <c r="L25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>125</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26">
-        <v>0.02</v>
-      </c>
-      <c r="D26">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E26">
-        <v>24</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="G26" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
-        <v>2</v>
-      </c>
-      <c r="L26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>126</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27">
-        <v>0.02</v>
-      </c>
-      <c r="D27">
-        <v>2E-3</v>
-      </c>
-      <c r="E27">
-        <v>32</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="G27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
-        <v>2</v>
-      </c>
-      <c r="L27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>127</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D28">
-        <v>0.06</v>
-      </c>
-      <c r="E28">
-        <v>10</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="G28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>128</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29">
-        <v>1.56</v>
-      </c>
-      <c r="D29">
-        <v>0.49</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="G29" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -7174,8 +7255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49366654-A1E2-4FE5-BB3C-541B591A5C82}">
   <dimension ref="A1:N207"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="A207" sqref="A180:A207"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7197,46 +7278,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -7247,7 +7328,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <v>0.11</v>
@@ -7276,7 +7357,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>0.28999999999999998</v>
@@ -7305,7 +7386,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>0.23</v>
@@ -7334,7 +7415,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>0.73</v>
@@ -7363,7 +7444,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>1.86</v>
@@ -7392,7 +7473,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7">
         <v>0.21</v>
@@ -7421,7 +7502,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8">
         <v>0.34</v>
@@ -7450,7 +7531,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9">
         <v>0.24</v>
@@ -7479,7 +7560,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <v>1.97</v>
@@ -7508,7 +7589,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>0.69</v>
@@ -7537,7 +7618,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12">
         <v>2.04</v>
@@ -7566,7 +7647,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13">
         <v>0.81</v>
@@ -7592,7 +7673,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14">
         <v>1.53</v>
@@ -7618,7 +7699,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15">
         <v>0.9</v>
@@ -7644,7 +7725,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16">
         <v>1.1000000000000001</v>
@@ -7670,7 +7751,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17">
         <v>1.25</v>
@@ -7696,7 +7777,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18">
         <v>1.3</v>
@@ -7722,7 +7803,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19">
         <v>1.25</v>
@@ -7748,7 +7829,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20">
         <v>0.9</v>
@@ -7774,7 +7855,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21">
         <v>0.6</v>
@@ -7800,7 +7881,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -7820,7 +7901,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23">
         <v>3.8</v>
@@ -7840,7 +7921,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24">
         <v>8.5</v>
@@ -7860,7 +7941,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25">
         <v>6.85</v>
@@ -7895,7 +7976,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26">
         <v>7.25</v>
@@ -7930,7 +8011,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27">
         <v>5.75</v>
@@ -7965,7 +8046,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D28">
         <v>7.95</v>
@@ -8000,7 +8081,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29">
         <v>7.85</v>
@@ -8035,7 +8116,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30">
         <v>0.15</v>
@@ -8068,7 +8149,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31">
         <v>2.1</v>
@@ -8101,7 +8182,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D32">
         <v>9</v>
@@ -8134,7 +8215,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33">
         <v>4.4000000000000004</v>
@@ -8169,7 +8250,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34">
         <v>2.65</v>
@@ -8204,7 +8285,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35">
         <v>3.5</v>
@@ -8239,7 +8320,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36">
         <v>1.1599999999999999</v>
@@ -8268,7 +8349,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37">
         <v>3.39</v>
@@ -8297,7 +8378,7 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38">
         <v>5.8</v>
@@ -8326,7 +8407,7 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D39">
         <v>6.76</v>
@@ -8355,7 +8436,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40">
         <v>2.57</v>
@@ -8384,7 +8465,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D41">
         <v>6</v>
@@ -8407,7 +8488,7 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -8430,7 +8511,7 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43">
         <v>4</v>
@@ -8453,7 +8534,7 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D44" s="1">
         <v>2.9999999999999997E-4</v>
@@ -8479,7 +8560,7 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D45" s="1">
         <v>8.4999999999999995E-4</v>
@@ -8505,7 +8586,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D46" s="1">
         <v>3.5000000000000001E-3</v>
@@ -8531,7 +8612,7 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D47" s="1">
         <v>5.6999999999999998E-4</v>
@@ -8557,7 +8638,7 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" s="1">
         <v>9.5000000000000005E-5</v>
@@ -8583,7 +8664,7 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" s="1">
         <v>2.0000000000000001E-4</v>
@@ -8609,7 +8690,7 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D50" s="1">
         <v>1.0200000000000001E-3</v>
@@ -8635,7 +8716,7 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D51" s="1">
         <v>3.6499999999999998E-4</v>
@@ -8661,7 +8742,7 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D52">
         <v>4.8399999999999999E-2</v>
@@ -8693,7 +8774,7 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D53">
         <v>0.1812</v>
@@ -8725,7 +8806,7 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D54">
         <v>9.01E-2</v>
@@ -8757,7 +8838,7 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D55">
         <v>6.4100000000000004E-2</v>
@@ -8789,7 +8870,7 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D56">
         <v>0.2</v>
@@ -8824,7 +8905,7 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D57">
         <v>0.09</v>
@@ -8853,7 +8934,7 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D58">
         <v>0.14000000000000001</v>
@@ -8882,7 +8963,7 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D59" s="1">
         <v>1.4999999999999999E-4</v>
@@ -8914,7 +8995,7 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D60" s="1">
         <v>0.02</v>
@@ -8946,7 +9027,7 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D61" s="1">
         <v>0.06</v>
@@ -8978,7 +9059,7 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D62" s="1">
         <v>0.15</v>
@@ -9010,7 +9091,7 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D63" s="1">
         <v>0.45</v>
@@ -9042,7 +9123,7 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D64" s="1">
         <v>4.4999999999999999E-4</v>
@@ -9074,7 +9155,7 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D65" s="1">
         <v>0.45</v>
@@ -9106,7 +9187,7 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D66" s="1">
         <v>0.2</v>
@@ -9138,7 +9219,7 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D67" s="1">
         <v>0.8</v>
@@ -9170,7 +9251,7 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D68" s="1">
         <v>0.5</v>
@@ -9202,7 +9283,7 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D69" s="1">
         <v>0.11</v>
@@ -9240,7 +9321,7 @@
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D70" s="1">
         <v>0.3</v>
@@ -9278,7 +9359,7 @@
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D71" s="1">
         <v>0.1</v>
@@ -9316,7 +9397,7 @@
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D72" s="1">
         <v>0.11</v>
@@ -9354,7 +9435,7 @@
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D73" s="1">
         <v>0.02</v>
@@ -9389,7 +9470,7 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D74">
         <v>0.02</v>
@@ -9424,7 +9505,7 @@
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D75" s="3">
         <v>2</v>
@@ -9456,7 +9537,7 @@
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
@@ -9488,7 +9569,7 @@
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D77" s="3">
         <v>0.1</v>
@@ -9520,7 +9601,7 @@
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D78" s="3">
         <v>0.1</v>
@@ -9552,7 +9633,7 @@
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D79" s="3">
         <v>0.01</v>
@@ -9584,7 +9665,7 @@
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D80" s="1">
         <v>0.14000000000000001</v>
@@ -9610,7 +9691,7 @@
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D81" s="1">
         <v>0.3</v>
@@ -9636,7 +9717,7 @@
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D82" s="1">
         <v>0.1</v>
@@ -9662,7 +9743,7 @@
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D83" s="1">
         <v>8.4000000000000005E-2</v>
@@ -9688,7 +9769,7 @@
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D84" s="1">
         <v>0.1</v>
@@ -9714,7 +9795,7 @@
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D85" s="1">
         <v>0.17</v>
@@ -9740,7 +9821,7 @@
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D86" s="1">
         <v>0.15</v>
@@ -9766,7 +9847,7 @@
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D87" s="1">
         <v>0.28000000000000003</v>
@@ -9792,7 +9873,7 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D88" s="1">
         <v>0.2</v>
@@ -9818,7 +9899,7 @@
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D89" s="1">
         <v>0.28999999999999998</v>
@@ -9844,7 +9925,7 @@
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D90" s="1">
         <v>0.32500000000000001</v>
@@ -9870,7 +9951,7 @@
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D91" s="1">
         <v>0.36</v>
@@ -9896,7 +9977,7 @@
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D92" s="1">
         <v>0.4</v>
@@ -9922,7 +10003,7 @@
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D93" s="1">
         <v>0.18</v>
@@ -9948,7 +10029,7 @@
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D94" s="1">
         <v>0.28000000000000003</v>
@@ -9974,7 +10055,7 @@
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D95" s="1">
         <v>0.23</v>
@@ -10000,7 +10081,7 @@
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D96" s="1">
         <v>0.315</v>
@@ -10026,7 +10107,7 @@
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D97" s="1">
         <v>0.18</v>
@@ -10052,7 +10133,7 @@
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D98" s="1">
         <v>0.28000000000000003</v>
@@ -10078,7 +10159,7 @@
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D99" s="1">
         <v>0.3</v>
@@ -10104,7 +10185,7 @@
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D100" s="1">
         <v>0.28000000000000003</v>
@@ -10130,7 +10211,7 @@
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D101" s="1">
         <v>0.27500000000000002</v>
@@ -10156,7 +10237,7 @@
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D102" s="1">
         <v>0.08</v>
@@ -10182,7 +10263,7 @@
         <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D103" s="1">
         <v>0.125</v>
@@ -10208,7 +10289,7 @@
         <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D104" s="1">
         <v>0.08</v>
@@ -10234,7 +10315,7 @@
         <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D105" s="1">
         <v>0.08</v>
@@ -10260,7 +10341,7 @@
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D106" s="1">
         <v>0.08</v>
@@ -10286,7 +10367,7 @@
         <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D107" s="1">
         <v>0.13</v>
@@ -10312,7 +10393,7 @@
         <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D108" s="1">
         <v>0.125</v>
@@ -10338,7 +10419,7 @@
         <v>108</v>
       </c>
       <c r="C109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D109" s="1">
         <v>0.05</v>
@@ -10364,7 +10445,7 @@
         <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D110" s="1">
         <v>7.4999999999999997E-2</v>
@@ -10390,7 +10471,7 @@
         <v>110</v>
       </c>
       <c r="C111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D111" s="1">
         <v>9.5000000000000001E-2</v>
@@ -10416,7 +10497,7 @@
         <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D112" s="1">
         <v>5.5E-2</v>
@@ -10442,7 +10523,7 @@
         <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D113" s="1">
         <v>0.32500000000000001</v>
@@ -10468,7 +10549,7 @@
         <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D114" s="1">
         <v>0.3</v>
@@ -10494,7 +10575,7 @@
         <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D115" s="1">
         <v>0.35</v>
@@ -10520,7 +10601,7 @@
         <v>115</v>
       </c>
       <c r="C116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D116" s="1">
         <v>0.38</v>
@@ -10546,7 +10627,7 @@
         <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D117" s="1">
         <v>0.42499999999999999</v>
@@ -10572,7 +10653,7 @@
         <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D118" s="1">
         <v>0.4</v>
@@ -10598,7 +10679,7 @@
         <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D119" s="1">
         <v>0.3</v>
@@ -10624,7 +10705,7 @@
         <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D120" s="1">
         <v>0.33600000000000002</v>
@@ -10662,7 +10743,7 @@
         <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D121" s="1">
         <v>0.40100000000000002</v>
@@ -10700,7 +10781,7 @@
         <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D122" s="1">
         <v>0.56000000000000005</v>
@@ -10738,7 +10819,7 @@
         <v>122</v>
       </c>
       <c r="C123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D123" s="1">
         <v>0.442</v>
@@ -10776,7 +10857,7 @@
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D124" s="1">
         <v>0.39700000000000002</v>
@@ -10814,7 +10895,7 @@
         <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D125" s="1">
         <v>0.8</v>
@@ -10849,7 +10930,7 @@
         <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D126" s="1">
         <v>0.47</v>
@@ -10881,7 +10962,7 @@
         <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D127" s="1">
         <v>1.23</v>
@@ -10913,7 +10994,7 @@
         <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D128" s="1">
         <v>0.93</v>
@@ -10945,7 +11026,7 @@
         <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D129" s="1">
         <v>1.36</v>
@@ -10977,7 +11058,7 @@
         <v>129</v>
       </c>
       <c r="C130" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D130" s="1">
         <v>0.16</v>
@@ -11009,7 +11090,7 @@
         <v>130</v>
       </c>
       <c r="C131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D131" s="1">
         <v>0.32</v>
@@ -11041,7 +11122,7 @@
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D132" s="1">
         <v>0.24</v>
@@ -11073,7 +11154,7 @@
         <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D133" s="1">
         <v>0.27</v>
@@ -11105,7 +11186,7 @@
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D134" s="1">
         <v>0.25</v>
@@ -11137,7 +11218,7 @@
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D135" s="1">
         <v>0.2</v>
@@ -11169,7 +11250,7 @@
         <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D136" s="1">
         <v>0.8</v>
@@ -11195,7 +11276,7 @@
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D137">
         <v>4.2815913999999997E-2</v>
@@ -11233,7 +11314,7 @@
         <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D138">
         <v>0.11393120299999999</v>
@@ -11271,7 +11352,7 @@
         <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D139">
         <v>6.1765646E-2</v>
@@ -11309,7 +11390,7 @@
         <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D140">
         <v>0.22</v>
@@ -11347,7 +11428,7 @@
         <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D141">
         <v>0.105</v>
@@ -11385,7 +11466,7 @@
         <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D142">
         <v>7.6999999999999999E-2</v>
@@ -11423,7 +11504,7 @@
         <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D143">
         <v>5.1999999999999998E-2</v>
@@ -11461,7 +11542,7 @@
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D144">
         <v>4.7E-2</v>
@@ -11499,7 +11580,7 @@
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D145">
         <v>0.104</v>
@@ -11537,7 +11618,7 @@
         <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D146">
         <v>0.18717695200000001</v>
@@ -11575,7 +11656,7 @@
         <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D147">
         <v>0.19052889200000001</v>
@@ -11613,7 +11694,7 @@
         <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D148">
         <v>0.18028339199999999</v>
@@ -11651,7 +11732,7 @@
         <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D149">
         <v>0.159097091</v>
@@ -11689,7 +11770,7 @@
         <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D150">
         <v>0.129223278</v>
@@ -11727,7 +11808,7 @@
         <v>150</v>
       </c>
       <c r="C151" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D151">
         <v>0.14391696264953083</v>
@@ -11765,7 +11846,7 @@
         <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D152">
         <v>0.17624625323468679</v>
@@ -11803,7 +11884,7 @@
         <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D153">
         <v>0.17430180670088127</v>
@@ -11841,7 +11922,7 @@
         <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D154">
         <v>9.2924905650796835E-2</v>
@@ -11879,7 +11960,7 @@
         <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D155">
         <v>7.440288767155169E-2</v>
@@ -11917,7 +11998,7 @@
         <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D156">
         <v>0.124165231</v>
@@ -11955,7 +12036,7 @@
         <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D157">
         <v>0.37037624499999999</v>
@@ -11993,7 +12074,7 @@
         <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D158">
         <v>0.31975399999999998</v>
@@ -12031,7 +12112,7 @@
         <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D159">
         <v>0.25733781900000002</v>
@@ -12069,7 +12150,7 @@
         <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D160">
         <v>0.19350246500000001</v>
@@ -12107,7 +12188,7 @@
         <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D161">
         <v>1.253543310846242E-2</v>
@@ -12145,7 +12226,7 @@
         <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D162">
         <v>3.8332987027192407E-2</v>
@@ -12183,7 +12264,7 @@
         <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D163">
         <v>0.10118202437186954</v>
@@ -12221,7 +12302,7 @@
         <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D164">
         <v>0.19860087071794363</v>
@@ -12259,7 +12340,7 @@
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D165">
         <v>0.16384179726813897</v>
@@ -12297,7 +12378,7 @@
         <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D166">
         <v>0.17018720541138677</v>
@@ -12335,7 +12416,7 @@
         <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D167">
         <v>4.12426964558155E-4</v>
@@ -12373,7 +12454,7 @@
         <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D168">
         <v>7.1393382854981532E-3</v>
@@ -12411,7 +12492,7 @@
         <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D169">
         <v>3.7411549535651435E-2</v>
@@ -12449,7 +12530,7 @@
         <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D170">
         <v>7.2671824796553403E-2</v>
@@ -12487,7 +12568,7 @@
         <v>170</v>
       </c>
       <c r="C171" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D171">
         <v>6.3778600038790087E-2</v>
@@ -12525,7 +12606,7 @@
         <v>171</v>
       </c>
       <c r="C172" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D172">
         <v>2.7641647066358958E-2</v>
@@ -12563,7 +12644,7 @@
         <v>172</v>
       </c>
       <c r="C173" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D173">
         <v>4.6912305061686276E-2</v>
@@ -12601,7 +12682,7 @@
         <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D174">
         <v>1.194289322668589E-2</v>
@@ -12639,7 +12720,7 @@
         <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D175">
         <v>4.2119676828936081E-2</v>
@@ -12677,7 +12758,7 @@
         <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D176">
         <v>0.14800354504202118</v>
@@ -12715,7 +12796,7 @@
         <v>176</v>
       </c>
       <c r="C177" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D177">
         <v>0.11180843536589069</v>
@@ -12753,7 +12834,7 @@
         <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D178">
         <v>0.16362647154408475</v>
@@ -12791,7 +12872,7 @@
         <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D179">
         <v>0.14164765861196901</v>
@@ -12829,7 +12910,7 @@
         <v>24</v>
       </c>
       <c r="C180" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D180">
         <v>1.35</v>
@@ -12861,7 +12942,7 @@
         <v>25</v>
       </c>
       <c r="C181" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D181">
         <v>1.75</v>
@@ -12893,7 +12974,7 @@
         <v>26</v>
       </c>
       <c r="C182" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D182">
         <v>2.25</v>
@@ -12925,7 +13006,7 @@
         <v>27</v>
       </c>
       <c r="C183" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D183">
         <v>2.5499999999999998</v>
@@ -12957,7 +13038,7 @@
         <v>28</v>
       </c>
       <c r="C184" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D184">
         <v>2.65</v>
@@ -12989,7 +13070,7 @@
         <v>29</v>
       </c>
       <c r="C185" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D185">
         <v>0.03</v>
@@ -13022,7 +13103,7 @@
         <v>30</v>
       </c>
       <c r="C186" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D186">
         <v>0.22500000000000001</v>
@@ -13055,7 +13136,7 @@
         <v>31</v>
       </c>
       <c r="C187" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D187">
         <v>1.2</v>
@@ -13088,7 +13169,7 @@
         <v>32</v>
       </c>
       <c r="C188" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D188">
         <v>0.9</v>
@@ -13120,7 +13201,7 @@
         <v>33</v>
       </c>
       <c r="C189" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D189">
         <v>1.1000000000000001</v>
@@ -13152,7 +13233,7 @@
         <v>34</v>
       </c>
       <c r="C190" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D190">
         <v>1.8</v>
@@ -13184,7 +13265,7 @@
         <v>51</v>
       </c>
       <c r="C191" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D191">
         <v>0.104</v>
@@ -13216,7 +13297,7 @@
         <v>52</v>
       </c>
       <c r="C192" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D192">
         <v>7.1599999999999997E-2</v>
@@ -13248,7 +13329,7 @@
         <v>53</v>
       </c>
       <c r="C193" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D193">
         <v>2.06E-2</v>
@@ -13280,7 +13361,7 @@
         <v>54</v>
       </c>
       <c r="C194" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D194">
         <v>9.9000000000000008E-3</v>
@@ -13312,7 +13393,7 @@
         <v>74</v>
       </c>
       <c r="C195" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D195" s="2">
         <v>1</v>
@@ -13344,7 +13425,7 @@
         <v>75</v>
       </c>
       <c r="C196" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D196" s="2">
         <v>0.35</v>
@@ -13376,7 +13457,7 @@
         <v>76</v>
       </c>
       <c r="C197" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D197" s="3">
         <v>0.01</v>
@@ -13408,7 +13489,7 @@
         <v>77</v>
       </c>
       <c r="C198" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D198" s="2">
         <v>0</v>
@@ -13440,7 +13521,7 @@
         <v>78</v>
       </c>
       <c r="C199" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D199" s="2">
         <v>0</v>
@@ -13472,7 +13553,7 @@
         <v>79</v>
       </c>
       <c r="C200" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D200">
         <v>0.06</v>
@@ -13498,7 +13579,7 @@
         <v>80</v>
       </c>
       <c r="C201" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D201" s="1">
         <v>7.9999999999999996E-6</v>
@@ -13524,7 +13605,7 @@
         <v>81</v>
       </c>
       <c r="C202" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -13550,7 +13631,7 @@
         <v>82</v>
       </c>
       <c r="C203" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D203">
         <v>0.24</v>
@@ -13576,7 +13657,7 @@
         <v>125</v>
       </c>
       <c r="C204" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D204">
         <v>0.02</v>
@@ -13608,7 +13689,7 @@
         <v>126</v>
       </c>
       <c r="C205" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D205">
         <v>0.02</v>
@@ -13640,7 +13721,7 @@
         <v>127</v>
       </c>
       <c r="C206" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D206">
         <v>0.28999999999999998</v>
@@ -13672,7 +13753,7 @@
         <v>128</v>
       </c>
       <c r="C207" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D207">
         <v>1.56</v>
@@ -13706,28 +13787,29 @@
   <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -13738,7 +13820,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2">
         <v>40</v>
@@ -13752,7 +13834,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>40</v>
@@ -13766,7 +13848,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4">
         <v>40</v>
@@ -13780,7 +13862,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>40</v>
@@ -13794,7 +13876,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>40</v>
@@ -13808,7 +13890,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>40</v>
@@ -13822,7 +13904,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8">
         <v>40</v>
@@ -13836,7 +13918,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <v>40</v>
@@ -13850,7 +13932,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10">
         <v>40</v>
@@ -13864,7 +13946,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>40</v>
@@ -13878,7 +13960,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>40</v>
@@ -13892,7 +13974,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13">
         <v>45</v>
@@ -13906,7 +13988,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14">
         <v>1350</v>
@@ -13920,7 +14002,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15">
         <v>100</v>
@@ -13934,7 +14016,7 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16">
         <v>100</v>
@@ -13948,7 +14030,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17">
         <v>100</v>
@@ -13962,7 +14044,7 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18">
         <v>100</v>
@@ -13976,7 +14058,7 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19">
         <v>100</v>
@@ -13990,7 +14072,7 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20">
         <v>100</v>
@@ -14004,7 +14086,7 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21">
         <v>100</v>
@@ -14018,7 +14100,7 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22">
         <v>100</v>
@@ -14032,7 +14114,7 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23">
         <v>100</v>
@@ -14046,7 +14128,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24">
         <v>100</v>
@@ -14060,7 +14142,7 @@
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25">
         <v>100</v>
@@ -14074,7 +14156,7 @@
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26">
         <v>100</v>
@@ -14088,7 +14170,7 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D27">
         <v>50</v>
@@ -14102,7 +14184,7 @@
         <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28">
         <v>50</v>
@@ -14116,7 +14198,7 @@
         <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D29">
         <v>50</v>
@@ -14130,7 +14212,7 @@
         <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30">
         <v>50</v>
@@ -14144,7 +14226,7 @@
         <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31">
         <v>50</v>
@@ -14158,7 +14240,7 @@
         <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32">
         <v>50</v>
@@ -14172,7 +14254,7 @@
         <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33">
         <v>50</v>
@@ -14186,7 +14268,7 @@
         <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34">
         <v>50</v>
@@ -14200,7 +14282,7 @@
         <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D35">
         <v>50</v>
@@ -14214,7 +14296,7 @@
         <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36">
         <v>50</v>
@@ -14228,7 +14310,7 @@
         <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37">
         <v>16</v>
@@ -14242,7 +14324,7 @@
         <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38">
         <v>30</v>
@@ -14256,7 +14338,7 @@
         <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39">
         <v>60</v>
@@ -14270,7 +14352,7 @@
         <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D40">
         <v>100</v>
@@ -14284,7 +14366,7 @@
         <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D41">
         <v>3.5</v>
@@ -14298,7 +14380,7 @@
         <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42">
         <v>7.5</v>
@@ -14312,7 +14394,7 @@
         <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D43">
         <v>13</v>
@@ -14326,7 +14408,7 @@
         <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D44">
         <v>27</v>
@@ -14340,7 +14422,7 @@
         <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D45">
         <v>42</v>
@@ -14354,7 +14436,7 @@
         <v>63</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D46">
         <v>3.5</v>
@@ -14368,7 +14450,7 @@
         <v>64</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D47">
         <v>7.5</v>
@@ -14382,7 +14464,7 @@
         <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D48">
         <v>13</v>
@@ -14396,7 +14478,7 @@
         <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D49">
         <v>27</v>
@@ -14410,7 +14492,7 @@
         <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50">
         <v>42</v>
@@ -14424,7 +14506,7 @@
         <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D51" s="2">
         <v>100</v>
@@ -14438,7 +14520,7 @@
         <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D52" s="2">
         <v>100</v>
@@ -14452,7 +14534,7 @@
         <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D53" s="2">
         <v>100</v>
@@ -14466,7 +14548,7 @@
         <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D54">
         <v>33.5</v>
@@ -14480,7 +14562,7 @@
         <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D55">
         <v>46.9</v>
@@ -14494,7 +14576,7 @@
         <v>85</v>
       </c>
       <c r="C56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D56">
         <v>56.95</v>
@@ -14508,7 +14590,7 @@
         <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D57">
         <v>67</v>
@@ -14522,7 +14604,7 @@
         <v>87</v>
       </c>
       <c r="C58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D58">
         <v>80.400000000000006</v>
@@ -14536,7 +14618,7 @@
         <v>88</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D59">
         <v>93.8</v>
@@ -14550,7 +14632,7 @@
         <v>89</v>
       </c>
       <c r="C60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D60">
         <v>107.2</v>
@@ -14564,7 +14646,7 @@
         <v>90</v>
       </c>
       <c r="C61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D61">
         <v>120.6</v>
@@ -14578,7 +14660,7 @@
         <v>91</v>
       </c>
       <c r="C62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D62">
         <v>167.5</v>
@@ -14592,7 +14674,7 @@
         <v>92</v>
       </c>
       <c r="C63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D63">
         <v>33.5</v>
@@ -14606,7 +14688,7 @@
         <v>93</v>
       </c>
       <c r="C64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D64">
         <v>46.9</v>
@@ -14620,7 +14702,7 @@
         <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D65">
         <v>56.95</v>
@@ -14634,7 +14716,7 @@
         <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D66">
         <v>67</v>
@@ -14648,7 +14730,7 @@
         <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D67">
         <v>80.400000000000006</v>
@@ -14662,7 +14744,7 @@
         <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D68">
         <v>93.8</v>
@@ -14676,7 +14758,7 @@
         <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D69">
         <v>107.2</v>
@@ -14690,7 +14772,7 @@
         <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D70">
         <v>120.6</v>
@@ -14704,7 +14786,7 @@
         <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D71">
         <v>167.5</v>
@@ -14718,7 +14800,7 @@
         <v>101</v>
       </c>
       <c r="C72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D72">
         <v>20.100000000000001</v>
@@ -14732,7 +14814,7 @@
         <v>102</v>
       </c>
       <c r="C73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D73">
         <v>33.5</v>
@@ -14746,7 +14828,7 @@
         <v>103</v>
       </c>
       <c r="C74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D74">
         <v>46.9</v>
@@ -14760,7 +14842,7 @@
         <v>104</v>
       </c>
       <c r="C75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D75">
         <v>56.95</v>
@@ -14774,7 +14856,7 @@
         <v>105</v>
       </c>
       <c r="C76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D76">
         <v>67</v>
@@ -14788,7 +14870,7 @@
         <v>106</v>
       </c>
       <c r="C77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D77">
         <v>80.400000000000006</v>
@@ -14802,7 +14884,7 @@
         <v>107</v>
       </c>
       <c r="C78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D78">
         <v>93.8</v>
@@ -14816,7 +14898,7 @@
         <v>108</v>
       </c>
       <c r="C79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D79">
         <v>107.2</v>
@@ -14830,7 +14912,7 @@
         <v>109</v>
       </c>
       <c r="C80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D80">
         <v>120.6</v>
@@ -14844,7 +14926,7 @@
         <v>110</v>
       </c>
       <c r="C81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D81">
         <v>167.5</v>
@@ -14858,7 +14940,7 @@
         <v>111</v>
       </c>
       <c r="C82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D82">
         <v>20.100000000000001</v>
@@ -14872,7 +14954,7 @@
         <v>112</v>
       </c>
       <c r="C83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D83">
         <v>33.5</v>
@@ -14886,7 +14968,7 @@
         <v>113</v>
       </c>
       <c r="C84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D84">
         <v>46.9</v>
@@ -14900,7 +14982,7 @@
         <v>114</v>
       </c>
       <c r="C85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D85">
         <v>67</v>
@@ -14914,7 +14996,7 @@
         <v>115</v>
       </c>
       <c r="C86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D86">
         <v>80.400000000000006</v>
@@ -14928,7 +15010,7 @@
         <v>116</v>
       </c>
       <c r="C87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D87">
         <v>93.8</v>
@@ -14942,7 +15024,7 @@
         <v>117</v>
       </c>
       <c r="C88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D88">
         <v>120.6</v>
@@ -14956,7 +15038,7 @@
         <v>118</v>
       </c>
       <c r="C89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D89">
         <v>167.5</v>
@@ -14970,7 +15052,7 @@
         <v>119</v>
       </c>
       <c r="C90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D90">
         <v>45</v>
@@ -14984,7 +15066,7 @@
         <v>120</v>
       </c>
       <c r="C91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D91">
         <v>55</v>
@@ -14998,7 +15080,7 @@
         <v>121</v>
       </c>
       <c r="C92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D92">
         <v>75</v>
@@ -15012,7 +15094,7 @@
         <v>122</v>
       </c>
       <c r="C93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D93">
         <v>115</v>
@@ -15026,7 +15108,7 @@
         <v>123</v>
       </c>
       <c r="C94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D94">
         <v>160</v>
@@ -15040,7 +15122,7 @@
         <v>124</v>
       </c>
       <c r="C95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D95">
         <v>55</v>
@@ -15054,7 +15136,7 @@
         <v>125</v>
       </c>
       <c r="C96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D96">
         <v>40</v>
@@ -15068,7 +15150,7 @@
         <v>126</v>
       </c>
       <c r="C97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D97">
         <v>40</v>
@@ -15082,7 +15164,7 @@
         <v>127</v>
       </c>
       <c r="C98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D98">
         <v>40</v>
@@ -15096,7 +15178,7 @@
         <v>128</v>
       </c>
       <c r="C99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D99">
         <v>40</v>
@@ -15110,7 +15192,7 @@
         <v>129</v>
       </c>
       <c r="C100" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D100">
         <v>56</v>
@@ -15124,7 +15206,7 @@
         <v>130</v>
       </c>
       <c r="C101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D101">
         <v>56</v>
@@ -15138,7 +15220,7 @@
         <v>131</v>
       </c>
       <c r="C102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D102">
         <v>72</v>
@@ -15152,7 +15234,7 @@
         <v>132</v>
       </c>
       <c r="C103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D103">
         <v>72</v>
@@ -15166,7 +15248,7 @@
         <v>133</v>
       </c>
       <c r="C104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D104">
         <v>176.9</v>
@@ -15180,7 +15262,7 @@
         <v>134</v>
       </c>
       <c r="C105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D105">
         <v>176.9</v>
@@ -15194,7 +15276,7 @@
         <v>135</v>
       </c>
       <c r="C106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D106">
         <v>60</v>
@@ -15208,7 +15290,7 @@
         <v>136</v>
       </c>
       <c r="C107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D107">
         <v>13</v>
@@ -15222,7 +15304,7 @@
         <v>137</v>
       </c>
       <c r="C108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D108">
         <v>75</v>
@@ -15236,7 +15318,7 @@
         <v>138</v>
       </c>
       <c r="C109" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D109">
         <v>165</v>
@@ -15265,16 +15347,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -15285,7 +15367,7 @@
         <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>-71.400000000000006</v>
@@ -15299,7 +15381,7 @@
         <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3">
         <v>-67.099999999999994</v>
@@ -15313,7 +15395,7 @@
         <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>-46.5</v>
@@ -15327,7 +15409,7 @@
         <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>-23.4</v>
@@ -15341,7 +15423,7 @@
         <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>-15</v>
@@ -15355,7 +15437,7 @@
         <v>140</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>-70</v>
@@ -15369,7 +15451,7 @@
         <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8">
         <v>-50</v>
@@ -15383,7 +15465,7 @@
         <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>-122.33</v>
@@ -15397,7 +15479,7 @@
         <v>151</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10">
         <v>-118.65</v>
@@ -15411,7 +15493,7 @@
         <v>152</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11">
         <v>-108.02</v>
@@ -15425,7 +15507,7 @@
         <v>153</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12">
         <v>-83.4</v>
@@ -15439,7 +15521,7 @@
         <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13">
         <v>-57.57</v>
@@ -15453,7 +15535,7 @@
         <v>155</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14">
         <v>-122.33</v>
@@ -15467,7 +15549,7 @@
         <v>156</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15">
         <v>-118.65</v>
@@ -15481,7 +15563,7 @@
         <v>157</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16">
         <v>-108.02</v>
@@ -15495,7 +15577,7 @@
         <v>158</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17">
         <v>-83.4</v>
@@ -15509,7 +15591,7 @@
         <v>159</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18">
         <v>-57.57</v>
@@ -15541,28 +15623,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -15573,7 +15655,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>18.399999999999999</v>
@@ -15590,7 +15672,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>18.399999999999999</v>
@@ -15607,7 +15689,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>18.399999999999999</v>
@@ -15624,7 +15706,7 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>18.399999999999999</v>
@@ -15641,7 +15723,7 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>18.399999999999999</v>
@@ -15658,7 +15740,7 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>18.399999999999999</v>
@@ -15675,7 +15757,7 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8">
         <v>18.399999999999999</v>
@@ -15692,7 +15774,7 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>18.399999999999999</v>
@@ -15709,7 +15791,7 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>18.399999999999999</v>
@@ -15726,7 +15808,7 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11">
         <v>18.399999999999999</v>
@@ -15743,7 +15825,7 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>18.399999999999999</v>
@@ -15760,7 +15842,7 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <v>18.399999999999999</v>
@@ -15777,7 +15859,7 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>3.65</v>
@@ -15791,7 +15873,7 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15">
         <v>21.82</v>
@@ -15811,7 +15893,7 @@
         <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H16">
         <v>0.5</v>
@@ -15825,7 +15907,7 @@
         <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17">
         <v>21.23</v>
@@ -15845,7 +15927,7 @@
         <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18">
         <v>21.23</v>
@@ -15868,7 +15950,7 @@
         <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="2">
         <v>19.73</v>
@@ -15892,7 +15974,7 @@
         <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="2">
         <v>19.53</v>
@@ -15916,7 +15998,7 @@
         <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="2">
         <v>19.57</v>
@@ -15940,7 +16022,7 @@
         <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="2">
         <v>18.760000000000002</v>
@@ -15960,7 +16042,7 @@
         <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="2">
         <v>19.440000000000001</v>
@@ -15984,7 +16066,7 @@
         <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24">
         <v>3.55</v>
@@ -15998,7 +16080,7 @@
         <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25">
         <v>3.55</v>
@@ -16012,7 +16094,7 @@
         <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26">
         <v>3.55</v>
@@ -16026,7 +16108,7 @@
         <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E27">
         <v>3.55</v>
@@ -16040,7 +16122,7 @@
         <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E28">
         <v>3.55</v>
@@ -16054,7 +16136,7 @@
         <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29">
         <v>3.55</v>
@@ -16068,7 +16150,7 @@
         <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E30">
         <v>3.55</v>
@@ -16082,7 +16164,7 @@
         <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31">
         <v>3.55</v>
@@ -16096,7 +16178,7 @@
         <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E32">
         <v>3.55</v>
@@ -16110,7 +16192,7 @@
         <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E33">
         <v>3.55</v>
@@ -16124,7 +16206,7 @@
         <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E34">
         <v>3.55</v>
@@ -16138,7 +16220,7 @@
         <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E35">
         <v>3.55</v>
@@ -16152,7 +16234,7 @@
         <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E36">
         <v>3.55</v>
@@ -16166,7 +16248,7 @@
         <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E37">
         <v>3.55</v>
@@ -16180,7 +16262,7 @@
         <v>97</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E38">
         <v>3.55</v>
@@ -16194,7 +16276,7 @@
         <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E39">
         <v>3.55</v>
@@ -16208,7 +16290,7 @@
         <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E40">
         <v>3.55</v>
@@ -16222,7 +16304,7 @@
         <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E41">
         <v>3.49</v>
@@ -16236,7 +16318,7 @@
         <v>101</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E42">
         <v>3.55</v>
@@ -16250,7 +16332,7 @@
         <v>102</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E43">
         <v>3.55</v>
@@ -16264,7 +16346,7 @@
         <v>103</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E44">
         <v>3.55</v>
@@ -16278,7 +16360,7 @@
         <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E45">
         <v>3.55</v>
@@ -16292,7 +16374,7 @@
         <v>105</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E46">
         <v>3.55</v>
@@ -16306,7 +16388,7 @@
         <v>106</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E47">
         <v>3.55</v>
@@ -16320,7 +16402,7 @@
         <v>107</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E48">
         <v>3.55</v>
@@ -16334,7 +16416,7 @@
         <v>108</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E49">
         <v>3.55</v>
@@ -16348,7 +16430,7 @@
         <v>109</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E50">
         <v>3.55</v>
@@ -16362,7 +16444,7 @@
         <v>110</v>
       </c>
       <c r="C51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E51">
         <v>3.55</v>
@@ -16376,7 +16458,7 @@
         <v>111</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E52">
         <v>3.55</v>
@@ -16390,7 +16472,7 @@
         <v>112</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E53">
         <v>3.55</v>
@@ -16404,7 +16486,7 @@
         <v>113</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E54">
         <v>3.55</v>
@@ -16418,7 +16500,7 @@
         <v>114</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E55">
         <v>3.55</v>
@@ -16432,7 +16514,7 @@
         <v>115</v>
       </c>
       <c r="C56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E56">
         <v>3.55</v>
@@ -16446,7 +16528,7 @@
         <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E57">
         <v>3.55</v>
@@ -16460,7 +16542,7 @@
         <v>117</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E58">
         <v>3.55</v>
@@ -16474,7 +16556,7 @@
         <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E59">
         <v>3.49</v>
@@ -16488,7 +16570,7 @@
         <v>120</v>
       </c>
       <c r="C60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D60">
         <v>19.600000000000001</v>
@@ -16511,7 +16593,7 @@
         <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D61">
         <v>19.7</v>
@@ -16534,7 +16616,7 @@
         <v>122</v>
       </c>
       <c r="C62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D62">
         <v>19.600000000000001</v>
@@ -16557,7 +16639,7 @@
         <v>123</v>
       </c>
       <c r="C63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D63">
         <v>19.399999999999999</v>
@@ -16580,7 +16662,7 @@
         <v>124</v>
       </c>
       <c r="C64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D64">
         <v>19.3</v>
@@ -16594,7 +16676,7 @@
         <v>127</v>
       </c>
       <c r="C65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D65">
         <v>20.2</v>
@@ -16611,7 +16693,7 @@
         <v>128</v>
       </c>
       <c r="C66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D66">
         <v>20.2</v>
@@ -16628,7 +16710,7 @@
         <v>129</v>
       </c>
       <c r="C67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D67">
         <v>22.9</v>
@@ -16645,7 +16727,7 @@
         <v>130</v>
       </c>
       <c r="C68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D68">
         <v>23.55</v>
@@ -16662,7 +16744,7 @@
         <v>131</v>
       </c>
       <c r="C69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D69">
         <v>22.9</v>
@@ -16679,7 +16761,7 @@
         <v>132</v>
       </c>
       <c r="C70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D70">
         <v>23.15</v>
@@ -16696,7 +16778,7 @@
         <v>133</v>
       </c>
       <c r="C71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D71">
         <v>22.9</v>
@@ -16713,7 +16795,7 @@
         <v>134</v>
       </c>
       <c r="C72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D72">
         <v>23.15</v>
